--- a/app/static/company.xlsx
+++ b/app/static/company.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rudy\Leon\21點\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CC0195-34E6-4DB0-9737-DE929F3960CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA19B40-A56C-4158-BE66-510A4FD4365D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="960">
   <si>
     <t>項次</t>
   </si>
@@ -3340,63 +3340,6 @@
   <si>
     <t>3770210_brl</t>
     <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>大运棋牌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>api-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>转账钱包</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>afun8-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>一级代理：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3770245</t>
-    </r>
   </si>
   <si>
     <r>
@@ -3528,6 +3471,111 @@
     </r>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>大运棋牌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>api-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转账钱包</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>afun8-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>级代理：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3770245</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>大运棋牌api-转账钱包-完美厂长-1级代理ID： 2010892</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010881_chessapilixin</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>4403173_brl</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>大运棋牌api-唯一钱包WINGMING-一级代理：4420615</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>4403173_inr</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>大运棋牌api-唯一钱包WINGMING-一级代理：4420574</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>2921346_cny</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>大运棋牌api-唯一钱包OKhash06-一级代理：4607576</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3536,7 +3584,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="41">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3596,7 +3644,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3608,14 +3655,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <u/>
@@ -3636,7 +3681,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <u/>
@@ -3657,7 +3701,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <u/>
@@ -3690,28 +3733,24 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <u/>
@@ -3796,6 +3835,28 @@
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="10">
@@ -4084,36 +4145,35 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4134,8 +4194,9 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -4566,32 +4627,32 @@
       <c r="R2" s="16"/>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="63" t="s">
         <v>730</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
     </row>
     <row r="4" spans="1:30">
       <c r="A4" s="65" t="s">
         <v>665</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="83" t="s">
         <v>731</v>
       </c>
       <c r="C4" s="65" t="s">
@@ -4606,66 +4667,66 @@
       <c r="F4" s="65" t="s">
         <v>670</v>
       </c>
-      <c r="G4" s="72" t="s">
+      <c r="G4" s="68" t="s">
         <v>671</v>
       </c>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="68"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="70"/>
     </row>
     <row r="5" spans="1:30">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
       <c r="G5" s="65" t="s">
         <v>672</v>
       </c>
       <c r="H5" s="65" t="s">
         <v>673</v>
       </c>
-      <c r="I5" s="67" t="s">
+      <c r="I5" s="74" t="s">
         <v>674</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="17" t="s">
         <v>675</v>
       </c>
-      <c r="L5" s="72" t="s">
+      <c r="L5" s="68" t="s">
         <v>676</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="72" t="s">
+      <c r="M5" s="70"/>
+      <c r="N5" s="68" t="s">
         <v>732</v>
       </c>
-      <c r="O5" s="68"/>
-      <c r="P5" s="72" t="s">
+      <c r="O5" s="70"/>
+      <c r="P5" s="68" t="s">
         <v>733</v>
       </c>
-      <c r="Q5" s="68"/>
+      <c r="Q5" s="70"/>
       <c r="R5" s="18" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="6" spans="1:30">
-      <c r="A6" s="66"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
       <c r="I6" s="19" t="s">
         <v>678</v>
       </c>
@@ -4696,13 +4757,13 @@
       <c r="R6" s="19"/>
     </row>
     <row r="7" spans="1:30">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="71" t="s">
         <v>734</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="76" t="s">
         <v>735</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="77" t="s">
         <v>685</v>
       </c>
       <c r="D7" s="28" t="s">
@@ -4760,9 +4821,9 @@
       <c r="AD7" s="33"/>
     </row>
     <row r="8" spans="1:30">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="29" t="s">
         <v>742</v>
       </c>
@@ -4818,9 +4879,9 @@
       <c r="AD8" s="33"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
       <c r="D9" s="33" t="s">
         <v>746</v>
       </c>
@@ -4874,9 +4935,9 @@
       <c r="AD9" s="33"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="35" t="s">
         <v>651</v>
       </c>
@@ -4917,8 +4978,8 @@
       <c r="AD10" s="33"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="A11" s="62"/>
-      <c r="B11" s="62"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="28"/>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
@@ -4949,9 +5010,9 @@
       <c r="AD11" s="33"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="A12" s="62"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="76" t="s">
+      <c r="A12" s="64"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="77" t="s">
         <v>736</v>
       </c>
       <c r="D12" s="29" t="s">
@@ -5011,9 +5072,9 @@
       <c r="AD12" s="33"/>
     </row>
     <row r="13" spans="1:30">
-      <c r="A13" s="62"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="29" t="s">
         <v>760</v>
       </c>
@@ -5071,9 +5132,9 @@
       <c r="AD13" s="33"/>
     </row>
     <row r="14" spans="1:30">
-      <c r="A14" s="62"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="29" t="s">
         <v>742</v>
       </c>
@@ -5127,9 +5188,9 @@
       <c r="AD14" s="33"/>
     </row>
     <row r="15" spans="1:30">
-      <c r="A15" s="62"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="29" t="s">
         <v>770</v>
       </c>
@@ -5185,9 +5246,9 @@
       <c r="AD15" s="33"/>
     </row>
     <row r="16" spans="1:30">
-      <c r="A16" s="62"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="29" t="s">
         <v>777</v>
       </c>
@@ -5233,8 +5294,8 @@
       <c r="AD16" s="33"/>
     </row>
     <row r="17" spans="1:30">
-      <c r="A17" s="62"/>
-      <c r="B17" s="62"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="35" t="s">
         <v>746</v>
       </c>
@@ -5287,8 +5348,8 @@
       <c r="AD17" s="33"/>
     </row>
     <row r="18" spans="1:30">
-      <c r="A18" s="62"/>
-      <c r="B18" s="62"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="33"/>
       <c r="D18" s="35" t="s">
         <v>651</v>
@@ -5345,8 +5406,8 @@
       <c r="AD18" s="33"/>
     </row>
     <row r="19" spans="1:30">
-      <c r="A19" s="62"/>
-      <c r="B19" s="62"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
@@ -5377,11 +5438,11 @@
       <c r="AD19" s="33"/>
     </row>
     <row r="20" spans="1:30">
-      <c r="A20" s="62"/>
-      <c r="B20" s="79" t="s">
+      <c r="A20" s="64"/>
+      <c r="B20" s="80" t="s">
         <v>790</v>
       </c>
-      <c r="C20" s="77" t="s">
+      <c r="C20" s="78" t="s">
         <v>685</v>
       </c>
       <c r="D20" s="43" t="s">
@@ -5439,9 +5500,9 @@
       <c r="AD20" s="43"/>
     </row>
     <row r="21" spans="1:30">
-      <c r="A21" s="62"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
+      <c r="A21" s="64"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
       <c r="D21" s="43" t="s">
         <v>796</v>
       </c>
@@ -5497,9 +5558,9 @@
       <c r="AD21" s="43"/>
     </row>
     <row r="22" spans="1:30">
-      <c r="A22" s="62"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
+      <c r="A22" s="64"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
       <c r="D22" s="43" t="s">
         <v>801</v>
       </c>
@@ -5555,9 +5616,9 @@
       <c r="AD22" s="43"/>
     </row>
     <row r="23" spans="1:30">
-      <c r="A23" s="62"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
       <c r="F23" s="43"/>
@@ -5587,8 +5648,8 @@
       <c r="AD23" s="43"/>
     </row>
     <row r="24" spans="1:30">
-      <c r="A24" s="62"/>
-      <c r="B24" s="62"/>
+      <c r="A24" s="64"/>
+      <c r="B24" s="64"/>
       <c r="C24" s="43" t="s">
         <v>637</v>
       </c>
@@ -5645,8 +5706,8 @@
       <c r="AD24" s="43"/>
     </row>
     <row r="25" spans="1:30">
-      <c r="A25" s="62"/>
-      <c r="B25" s="62"/>
+      <c r="A25" s="64"/>
+      <c r="B25" s="64"/>
       <c r="C25" s="43" t="s">
         <v>796</v>
       </c>
@@ -5703,8 +5764,8 @@
       <c r="AD25" s="43"/>
     </row>
     <row r="26" spans="1:30">
-      <c r="A26" s="62"/>
-      <c r="B26" s="62"/>
+      <c r="A26" s="64"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="43" t="s">
         <v>801</v>
       </c>
@@ -5761,8 +5822,8 @@
       <c r="AD26" s="43"/>
     </row>
     <row r="27" spans="1:30">
-      <c r="A27" s="62"/>
-      <c r="B27" s="62"/>
+      <c r="A27" s="64"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="43"/>
       <c r="D27" s="43"/>
       <c r="E27" s="43"/>
@@ -5793,11 +5854,11 @@
       <c r="AD27" s="43"/>
     </row>
     <row r="28" spans="1:30">
-      <c r="A28" s="62"/>
-      <c r="B28" s="80" t="s">
+      <c r="A28" s="64"/>
+      <c r="B28" s="81" t="s">
         <v>821</v>
       </c>
-      <c r="C28" s="81" t="s">
+      <c r="C28" s="82" t="s">
         <v>685</v>
       </c>
       <c r="D28" s="48" t="s">
@@ -5855,9 +5916,9 @@
       <c r="AD28" s="51"/>
     </row>
     <row r="29" spans="1:30">
-      <c r="A29" s="62"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
+      <c r="A29" s="64"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
       <c r="D29" s="48" t="s">
         <v>827</v>
       </c>
@@ -5913,9 +5974,9 @@
       <c r="AD29" s="51"/>
     </row>
     <row r="30" spans="1:30">
-      <c r="A30" s="62"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
+      <c r="A30" s="64"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
       <c r="D30" s="48" t="s">
         <v>831</v>
       </c>
@@ -5971,9 +6032,9 @@
       <c r="AD30" s="51"/>
     </row>
     <row r="31" spans="1:30">
-      <c r="A31" s="62"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
+      <c r="A31" s="64"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
       <c r="D31" s="48" t="s">
         <v>836</v>
       </c>
@@ -6029,9 +6090,9 @@
       <c r="AD31" s="51"/>
     </row>
     <row r="32" spans="1:30">
-      <c r="A32" s="62"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
+      <c r="A32" s="64"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
       <c r="D32" s="48" t="s">
         <v>633</v>
       </c>
@@ -6087,9 +6148,9 @@
       <c r="AD32" s="51"/>
     </row>
     <row r="33" spans="1:30">
-      <c r="A33" s="62"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
+      <c r="A33" s="64"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="64"/>
       <c r="D33" s="48" t="s">
         <v>845</v>
       </c>
@@ -6145,9 +6206,9 @@
       <c r="AD33" s="51"/>
     </row>
     <row r="34" spans="1:30">
-      <c r="A34" s="62"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
+      <c r="A34" s="64"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
       <c r="D34" s="51" t="s">
         <v>850</v>
       </c>
@@ -6203,9 +6264,9 @@
       <c r="AD34" s="51"/>
     </row>
     <row r="35" spans="1:30">
-      <c r="A35" s="62"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
+      <c r="A35" s="64"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
       <c r="D35" s="51" t="s">
         <v>855</v>
       </c>
@@ -6261,9 +6322,9 @@
       <c r="AD35" s="51"/>
     </row>
     <row r="36" spans="1:30">
-      <c r="A36" s="62"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
+      <c r="A36" s="64"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
       <c r="D36" s="51" t="s">
         <v>860</v>
       </c>
@@ -6317,9 +6378,9 @@
       <c r="AD36" s="51"/>
     </row>
     <row r="37" spans="1:30">
-      <c r="A37" s="62"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
+      <c r="A37" s="64"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
       <c r="D37" s="51"/>
       <c r="E37" s="51"/>
       <c r="F37" s="51"/>
@@ -6349,9 +6410,9 @@
       <c r="AD37" s="51"/>
     </row>
     <row r="38" spans="1:30">
-      <c r="A38" s="62"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="81" t="s">
+      <c r="A38" s="64"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="82" t="s">
         <v>736</v>
       </c>
       <c r="D38" s="48" t="s">
@@ -6407,9 +6468,9 @@
       <c r="AD38" s="51"/>
     </row>
     <row r="39" spans="1:30">
-      <c r="A39" s="62"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
+      <c r="A39" s="64"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="64"/>
       <c r="D39" s="48" t="s">
         <v>827</v>
       </c>
@@ -6465,8 +6526,8 @@
       <c r="AD39" s="51"/>
     </row>
     <row r="40" spans="1:30">
-      <c r="A40" s="62"/>
-      <c r="B40" s="62"/>
+      <c r="A40" s="64"/>
+      <c r="B40" s="64"/>
       <c r="C40" s="48" t="s">
         <v>874</v>
       </c>
@@ -6523,9 +6584,9 @@
       <c r="AD40" s="51"/>
     </row>
     <row r="41" spans="1:30">
-      <c r="A41" s="62"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="78" t="s">
+      <c r="A41" s="64"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="79" t="s">
         <v>881</v>
       </c>
       <c r="D41" s="48" t="s">
@@ -6577,9 +6638,9 @@
       <c r="AD41" s="51"/>
     </row>
     <row r="42" spans="1:30">
-      <c r="A42" s="62"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
+      <c r="A42" s="64"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="64"/>
       <c r="D42" s="48" t="s">
         <v>836</v>
       </c>
@@ -6633,8 +6694,8 @@
       <c r="AD42" s="51"/>
     </row>
     <row r="43" spans="1:30">
-      <c r="A43" s="62"/>
-      <c r="B43" s="62"/>
+      <c r="A43" s="64"/>
+      <c r="B43" s="64"/>
       <c r="C43" s="48" t="s">
         <v>893</v>
       </c>
@@ -6683,8 +6744,8 @@
       <c r="AD43" s="51"/>
     </row>
     <row r="44" spans="1:30">
-      <c r="A44" s="62"/>
-      <c r="B44" s="62"/>
+      <c r="A44" s="64"/>
+      <c r="B44" s="64"/>
       <c r="C44" s="48" t="s">
         <v>633</v>
       </c>
@@ -6741,8 +6802,8 @@
       <c r="AD44" s="51"/>
     </row>
     <row r="45" spans="1:30">
-      <c r="A45" s="62"/>
-      <c r="B45" s="62"/>
+      <c r="A45" s="64"/>
+      <c r="B45" s="64"/>
       <c r="C45" s="48" t="s">
         <v>845</v>
       </c>
@@ -6799,8 +6860,8 @@
       <c r="AD45" s="51"/>
     </row>
     <row r="46" spans="1:30">
-      <c r="A46" s="62"/>
-      <c r="B46" s="62"/>
+      <c r="A46" s="64"/>
+      <c r="B46" s="64"/>
       <c r="C46" s="51" t="s">
         <v>850</v>
       </c>
@@ -6857,8 +6918,8 @@
       <c r="AD46" s="51"/>
     </row>
     <row r="47" spans="1:30">
-      <c r="A47" s="62"/>
-      <c r="B47" s="62"/>
+      <c r="A47" s="64"/>
+      <c r="B47" s="64"/>
       <c r="C47" s="51" t="s">
         <v>910</v>
       </c>
@@ -6917,8 +6978,8 @@
       <c r="AD47" s="51"/>
     </row>
     <row r="48" spans="1:30">
-      <c r="A48" s="62"/>
-      <c r="B48" s="62"/>
+      <c r="A48" s="64"/>
+      <c r="B48" s="64"/>
       <c r="C48" s="51" t="s">
         <v>915</v>
       </c>
@@ -6967,8 +7028,8 @@
       <c r="AD48" s="51"/>
     </row>
     <row r="49" spans="1:30">
-      <c r="A49" s="62"/>
-      <c r="B49" s="62"/>
+      <c r="A49" s="64"/>
+      <c r="B49" s="64"/>
       <c r="C49" s="51" t="s">
         <v>919</v>
       </c>
@@ -7021,8 +7082,8 @@
       <c r="AD49" s="51"/>
     </row>
     <row r="50" spans="1:30">
-      <c r="A50" s="62"/>
-      <c r="B50" s="62"/>
+      <c r="A50" s="64"/>
+      <c r="B50" s="64"/>
       <c r="C50" s="51" t="s">
         <v>924</v>
       </c>
@@ -7075,8 +7136,8 @@
       <c r="AD50" s="51"/>
     </row>
     <row r="51" spans="1:30">
-      <c r="A51" s="62"/>
-      <c r="B51" s="62"/>
+      <c r="A51" s="64"/>
+      <c r="B51" s="64"/>
       <c r="C51" s="51"/>
       <c r="D51" s="51"/>
       <c r="E51" s="51"/>
@@ -7111,16 +7172,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A7:A51"/>
-    <mergeCell ref="B7:B19"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="B28:B51"/>
-    <mergeCell ref="C28:C37"/>
-    <mergeCell ref="C38:C39"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
@@ -7135,6 +7186,16 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
+    <mergeCell ref="A7:A51"/>
+    <mergeCell ref="B7:B19"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="B28:B51"/>
+    <mergeCell ref="C28:C37"/>
+    <mergeCell ref="C38:C39"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <hyperlinks>
@@ -7225,8 +7286,8 @@
   <dimension ref="A1:K340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D259" sqref="D259"/>
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1"/>
@@ -15385,13 +15446,13 @@
       </c>
     </row>
     <row r="251" spans="1:11" ht="12.75">
-      <c r="A251" s="82">
+      <c r="A251" s="60">
         <v>40113</v>
       </c>
-      <c r="B251" s="82" t="s">
+      <c r="B251" s="60" t="s">
         <v>593</v>
       </c>
-      <c r="C251" s="82" t="s">
+      <c r="C251" s="60" t="s">
         <v>594</v>
       </c>
       <c r="D251" s="3">
@@ -15633,13 +15694,13 @@
       </c>
     </row>
     <row r="259" spans="1:11" ht="12.75">
-      <c r="A259" s="82">
+      <c r="A259" s="60">
         <v>40121</v>
       </c>
-      <c r="B259" s="82" t="s">
+      <c r="B259" s="60" t="s">
         <v>945</v>
       </c>
-      <c r="C259" s="83" t="s">
+      <c r="C259" s="61" t="s">
         <v>946</v>
       </c>
       <c r="D259" s="3"/>
@@ -15662,10 +15723,10 @@
         <v>40230</v>
       </c>
       <c r="B260" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="C260" s="57" t="s">
         <v>950</v>
-      </c>
-      <c r="C260" s="57" t="s">
-        <v>951</v>
       </c>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -19231,8 +19292,8 @@
   </sheetPr>
   <dimension ref="A1:F999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
-      <selection activeCell="E266" sqref="E266"/>
+    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="C270" sqref="C270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -25479,7 +25540,7 @@
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
     </row>
-    <row r="257" spans="1:5" ht="12.75">
+    <row r="257" spans="1:6" ht="12.75">
       <c r="A257" s="3">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40120)</f>
         <v>40120</v>
@@ -25495,7 +25556,7 @@
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
     </row>
-    <row r="258" spans="1:5" ht="12.75">
+    <row r="258" spans="1:6" ht="12.75">
       <c r="A258" s="3">
         <v>40128</v>
       </c>
@@ -25514,7 +25575,7 @@
         <v>MYR</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="13.5">
+    <row r="259" spans="1:6" ht="13.5">
       <c r="A259" s="3">
         <v>40142</v>
       </c>
@@ -25531,7 +25592,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="13.5">
+    <row r="260" spans="1:6" ht="13.5">
       <c r="A260" s="3">
         <v>40144</v>
       </c>
@@ -25548,7 +25609,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="14.25">
+    <row r="261" spans="1:6" ht="14.25">
       <c r="A261" s="3">
         <v>40121</v>
       </c>
@@ -25556,7 +25617,7 @@
         <v>945</v>
       </c>
       <c r="C261" s="57" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D261" s="59" t="s">
         <v>931</v>
@@ -25565,15 +25626,15 @@
         <v>943</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="12.75">
+    <row r="262" spans="1:6" ht="16.5">
       <c r="A262" s="3">
         <v>40150</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>947</v>
       </c>
-      <c r="C262" s="60" t="s">
-        <v>948</v>
+      <c r="C262" s="62" t="s">
+        <v>951</v>
       </c>
       <c r="D262" s="3" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"巴西雷亞爾")</f>
@@ -25584,15 +25645,15 @@
         <v>BRL</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="14.25">
+    <row r="263" spans="1:6" ht="14.25">
       <c r="A263" s="3">
         <v>40230</v>
       </c>
       <c r="B263" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="C263" s="57" t="s">
         <v>950</v>
-      </c>
-      <c r="C263" s="57" t="s">
-        <v>951</v>
       </c>
       <c r="D263" s="3" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"菲律賓披索")</f>
@@ -25603,63 +25664,114 @@
         <v>PHP</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="12.75">
-      <c r="A264" s="3"/>
-      <c r="B264" s="3"/>
-      <c r="C264" s="3"/>
-      <c r="D264" s="3"/>
-      <c r="E264" s="3"/>
-    </row>
-    <row r="265" spans="1:5" ht="12.75">
-      <c r="A265" s="3"/>
-      <c r="B265" s="3"/>
-      <c r="C265" s="3"/>
-      <c r="D265" s="3"/>
-      <c r="E265" s="3"/>
-    </row>
-    <row r="266" spans="1:5" ht="12.75">
-      <c r="A266" s="3"/>
-      <c r="B266" s="3"/>
-      <c r="C266" s="3"/>
-      <c r="D266" s="3"/>
-      <c r="E266" s="3"/>
-    </row>
-    <row r="267" spans="1:5" ht="12.75">
-      <c r="A267" s="3"/>
-      <c r="B267" s="3"/>
-      <c r="C267" s="3"/>
-      <c r="D267" s="3"/>
-      <c r="E267" s="3"/>
-    </row>
-    <row r="268" spans="1:5" ht="12.75">
+    <row r="264" spans="1:6" ht="12.75">
+      <c r="A264" s="3">
+        <v>5069</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="D264" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"虛擬美金")</f>
+        <v>虛擬美金</v>
+      </c>
+      <c r="E264" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"USDT")</f>
+        <v>USDT</v>
+      </c>
+      <c r="F264" s="3"/>
+    </row>
+    <row r="265" spans="1:6" ht="12.75">
+      <c r="A265" s="3">
+        <v>40226</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="D265" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"巴西雷亞爾")</f>
+        <v>巴西雷亞爾</v>
+      </c>
+      <c r="E265" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BRL")</f>
+        <v>BRL</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="12.75">
+      <c r="A266" s="3">
+        <v>40222</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="D266" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"印度盧比")</f>
+        <v>印度盧比</v>
+      </c>
+      <c r="E266" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"INR")</f>
+        <v>INR</v>
+      </c>
+      <c r="F266" s="3" t="str">
+        <f ca="1">VLOOKUP(E266, 幣別!B:D, 3, FALSE)</f>
+        <v>CNYINR</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="13.5">
+      <c r="A267" s="3">
+        <v>40240</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="D267" s="59" t="s">
+        <v>931</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="12.75">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
     </row>
-    <row r="269" spans="1:5" ht="12.75">
+    <row r="269" spans="1:6" ht="12.75">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
     </row>
-    <row r="270" spans="1:5" ht="12.75">
+    <row r="270" spans="1:6" ht="12.75">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
     </row>
-    <row r="271" spans="1:5" ht="12.75">
+    <row r="271" spans="1:6" ht="12.75">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
     </row>
-    <row r="272" spans="1:5" ht="12.75">
+    <row r="272" spans="1:6" ht="12.75">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -28137,8 +28249,8 @@
   <dimension ref="A1:Q528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G31:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -39297,22 +39409,22 @@
       <c r="N2" s="16"/>
     </row>
     <row r="3" spans="1:14" ht="14.25">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="63" t="s">
         <v>664</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
     </row>
     <row r="4" spans="1:14" ht="14.25">
       <c r="A4" s="65" t="s">
@@ -39333,54 +39445,54 @@
       <c r="F4" s="65" t="s">
         <v>670</v>
       </c>
-      <c r="G4" s="72" t="s">
+      <c r="G4" s="68" t="s">
         <v>671</v>
       </c>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="68"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="70"/>
     </row>
     <row r="5" spans="1:14" ht="14.25">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
       <c r="G5" s="65" t="s">
         <v>672</v>
       </c>
       <c r="H5" s="65" t="s">
         <v>673</v>
       </c>
-      <c r="I5" s="67" t="s">
+      <c r="I5" s="74" t="s">
         <v>674</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="17" t="s">
         <v>675</v>
       </c>
-      <c r="L5" s="72" t="s">
+      <c r="L5" s="68" t="s">
         <v>676</v>
       </c>
-      <c r="M5" s="68"/>
+      <c r="M5" s="70"/>
       <c r="N5" s="18" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="14.25">
-      <c r="A6" s="66"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
       <c r="I6" s="19" t="s">
         <v>678</v>
       </c>
@@ -39399,13 +39511,13 @@
       <c r="N6" s="19"/>
     </row>
     <row r="7" spans="1:14" ht="14.25">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="71" t="s">
         <v>683</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="72" t="s">
         <v>684</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="75" t="s">
         <v>685</v>
       </c>
       <c r="D7" s="20" t="s">
@@ -39439,9 +39551,9 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="14.25">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="20" t="s">
         <v>694</v>
       </c>
@@ -39473,9 +39585,9 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="14.25">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
       <c r="D9" s="20" t="s">
         <v>38</v>
       </c>
@@ -39507,8 +39619,8 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.25">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="20" t="s">
         <v>700</v>
       </c>
@@ -39543,8 +39655,8 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="14.25">
-      <c r="A11" s="62"/>
-      <c r="B11" s="62"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="20" t="s">
         <v>702</v>
       </c>
@@ -39579,8 +39691,8 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="14.25">
-      <c r="A12" s="62"/>
-      <c r="B12" s="62"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="20" t="s">
         <v>705</v>
       </c>
@@ -39615,8 +39727,8 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="14.25">
-      <c r="A13" s="62"/>
-      <c r="B13" s="62"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="20" t="s">
         <v>708</v>
       </c>
@@ -39651,8 +39763,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="14.25">
-      <c r="A14" s="62"/>
-      <c r="B14" s="62"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="23" t="s">
         <v>712</v>
       </c>
@@ -39687,8 +39799,8 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="14.25">
-      <c r="A15" s="62"/>
-      <c r="B15" s="62"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="23" t="s">
         <v>713</v>
       </c>
@@ -39723,8 +39835,8 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="14.25">
-      <c r="A16" s="62"/>
-      <c r="B16" s="62"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="23" t="s">
         <v>715</v>
       </c>
@@ -39759,13 +39871,13 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="14.25">
-      <c r="A17" s="62"/>
-      <c r="B17" s="62"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="20"/>
     </row>
     <row r="18" spans="1:14" ht="14.25">
-      <c r="A18" s="62"/>
-      <c r="B18" s="62"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
@@ -39780,10 +39892,10 @@
       <c r="N18" s="22"/>
     </row>
     <row r="19" spans="1:14" ht="14.25">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="71" t="s">
         <v>716</v>
       </c>
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="72" t="s">
         <v>717</v>
       </c>
       <c r="C19" s="20" t="s">
@@ -39818,8 +39930,8 @@
       <c r="N19" s="22"/>
     </row>
     <row r="20" spans="1:14" ht="14.25">
-      <c r="A20" s="62"/>
-      <c r="B20" s="62"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="64"/>
       <c r="C20" s="20" t="s">
         <v>708</v>
       </c>
@@ -39854,8 +39966,8 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="14.25">
-      <c r="A21" s="62"/>
-      <c r="B21" s="62"/>
+      <c r="A21" s="64"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="20" t="s">
         <v>702</v>
       </c>
@@ -39890,9 +40002,9 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="14.25">
-      <c r="A22" s="62"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="64" t="s">
+      <c r="A22" s="64"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="73" t="s">
         <v>720</v>
       </c>
       <c r="D22" s="20" t="s">
@@ -39924,9 +40036,9 @@
       <c r="N22" s="22"/>
     </row>
     <row r="23" spans="1:14" ht="14.25">
-      <c r="A23" s="62"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
       <c r="D23" s="20" t="s">
         <v>721</v>
       </c>
@@ -39956,9 +40068,9 @@
       <c r="N23" s="22"/>
     </row>
     <row r="24" spans="1:14" ht="14.25">
-      <c r="A24" s="62"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
+      <c r="A24" s="64"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="20" t="s">
         <v>722</v>
       </c>
@@ -39988,12 +40100,12 @@
       <c r="N24" s="22"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A25" s="62"/>
-      <c r="B25" s="62"/>
+      <c r="A25" s="64"/>
+      <c r="B25" s="64"/>
     </row>
     <row r="26" spans="1:14" ht="14.25">
-      <c r="A26" s="62"/>
-      <c r="B26" s="62"/>
+      <c r="A26" s="64"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
@@ -40098,14 +40210,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="L5:M5"/>
     <mergeCell ref="A19:A26"/>
     <mergeCell ref="B19:B26"/>
     <mergeCell ref="C22:C24"/>
@@ -40116,6 +40220,14 @@
     <mergeCell ref="A7:A18"/>
     <mergeCell ref="B7:B18"/>
     <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="L5:M5"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <hyperlinks>
